--- a/perforkid/database/form_driver.xlsx
+++ b/perforkid/database/form_driver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F002D42-2455-4591-867A-02F0D1F1F911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932B03D-6293-490D-B374-C6ADB4301980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>เบอร์โทร (บิดา)</t>
-  </si>
-  <si>
     <t>ที่อยู่ที่ติดต่อได้</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>26/12 กรุงเทพ ประเทศไทย 10000</t>
+  </si>
+  <si>
+    <t>เบอร์โทร</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,13 +701,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -727,56 +727,56 @@
         <v>1</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">

--- a/perforkid/database/form_driver.xlsx
+++ b/perforkid/database/form_driver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932B03D-6293-490D-B374-C6ADB4301980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F31E70-6107-495B-932F-124AF075415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,30 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
-    <t>รหัสประจำตัว</t>
-  </si>
-  <si>
     <t>099-999-9999</t>
   </si>
   <si>
-    <t>ลำดับ</t>
-  </si>
-  <si>
     <t>นาย สมปอง สบายมาก</t>
   </si>
   <si>
-    <t>ชื่อ-สกุล</t>
-  </si>
-  <si>
-    <t>เบอร์รถ</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>ที่อยู่ที่ติดต่อได้</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,9 +57,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>อีเมล</t>
-  </si>
-  <si>
     <t>sompong@gmail.com</t>
   </si>
   <si>
@@ -93,7 +75,25 @@
     <t>26/12 กรุงเทพ ประเทศไทย 10000</t>
   </si>
   <si>
-    <t>เบอร์โทร</t>
+    <t>index</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>name-surname</t>
+  </si>
+  <si>
+    <t>car-number</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -689,25 +689,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -718,65 +718,65 @@
         <v>123456</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="E3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">

--- a/perforkid/database/form_driver.xlsx
+++ b/perforkid/database/form_driver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perawit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F31E70-6107-495B-932F-124AF075415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210F437-DE0F-4550-B5D2-49720270FFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>name-surname</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>driver-ID</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,22 +692,22 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
